--- a/Capstone/Age of Refugees.xlsx
+++ b/Capstone/Age of Refugees.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC3F0662-538C-4404-844D-AFFC8EDBD5FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B129DF11-9698-451C-991A-A3C31C8DD494}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 15" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table 15'!$A$4:$F$46</definedName>
     <definedName name="table_x">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -580,12 +581,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -593,12 +591,24 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Age of Refugees</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32554155730533679"/>
+          <c:y val="2.8301886792452831E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -612,12 +622,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -630,7 +637,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21372448484979048"/>
+          <c:y val="0.17374149659863947"/>
+          <c:w val="0.73492788435645262"/>
+          <c:h val="0.39031156819683255"/>
+        </c:manualLayout>
+      </c:layout>
       <c:areaChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -638,20 +655,85 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="0"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst>
-              <a:innerShdw dist="12700" dir="16200000">
+              <a:innerShdw dist="38100" dir="16200000">
                 <a:schemeClr val="lt1"/>
               </a:innerShdw>
             </a:effectLst>
           </c:spPr>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                          <a:lumOff val="40000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Table 15'!$A$12:$A$27</c:f>
@@ -773,12 +855,33 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1"/>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="lt1">
+                      <a:alpha val="0"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:axId val="516778760"/>
         <c:axId val="516789912"/>
       </c:areaChart>
@@ -795,11 +898,12 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+                <a:alpha val="25000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -811,12 +915,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -838,65 +939,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="95000"/>
-                      <a:lumOff val="5000"/>
-                      <a:alpha val="42000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
-                      <a:alpha val="36000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="516778760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -921,30 +969,756 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Gender </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38706933508311459"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="ltUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="accent1"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent1"/>
+                </a:innerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="ltUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="accent2"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent2"/>
+                </a:innerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Table 15'!$A$8:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Male</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Table 15'!$B$8:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>14651</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15265</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-76C7-4EC0-8F71-A962EDB9397F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>MARITAL STATUS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Table 15'!$A$35:$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Married3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Single</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Widowed</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Divorced/separated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Table 15'!$B$35:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7770</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20828</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>414</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2438-4C89-9EC9-DA4FC5C026B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="550700552"/>
+        <c:axId val="550707112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="550700552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550707112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="550707112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550700552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1009,76 +1783,104 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="279">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="285">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -1090,73 +1892,103 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-          <a:alpha val="75000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="50000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
       <a:effectLst>
-        <a:innerShdw dist="12700" dir="16200000">
+        <a:innerShdw dist="38100" dir="16200000">
           <a:schemeClr val="lt1"/>
         </a:innerShdw>
       </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="50000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
       <a:effectLst>
-        <a:innerShdw dist="12700" dir="16200000">
+        <a:innerShdw dist="38100" dir="16200000">
           <a:schemeClr val="lt1"/>
         </a:innerShdw>
       </a:effectLst>
@@ -1167,19 +1999,24 @@
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="85000"/>
-          </a:schemeClr>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
@@ -1189,14 +2026,585 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="252">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
   <cs:dataPointMarkerLayout symbol="circle" size="6"/>
@@ -1223,24 +2631,67 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1248,42 +2699,81 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1293,118 +2783,11 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1413,22 +2796,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1436,7 +2811,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1449,22 +2824,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1477,9 +2841,9 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1491,12 +2855,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1520,9 +2884,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1540,29 +2904,526 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
           <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:upBar>
   <cs:valueAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1570,7 +3431,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -1580,16 +3441,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1609,6 +3470,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06A3BCBA-DB80-4CD9-84C4-A8532E4C7DF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{864129F7-8A13-4750-BEDB-6A706CC68360}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1943,8 +3876,8 @@
   </sheetPr>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Capstone/Age of Refugees.xlsx
+++ b/Capstone/Age of Refugees.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B129DF11-9698-451C-991A-A3C31C8DD494}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27ADD76-4CA2-44DD-9C07-1D9EB8491680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 15" sheetId="8" r:id="rId1"/>
+    <sheet name="Age, Gender and Marital Status" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table 15'!$A$4:$F$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Age, Gender and Marital Status'!$A$4:$F$46</definedName>
     <definedName name="table_x">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -240,26 +240,14 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Married</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
+    <t>Married</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -297,13 +285,6 @@
     <font>
       <vertAlign val="superscript"/>
       <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -581,9 +562,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -591,24 +575,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
+              <a:rPr lang="en-US"/>
               <a:t>Age of Refugees</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.32554155730533679"/>
-          <c:y val="2.8301886792452831E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -622,9 +594,12 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -645,7 +620,7 @@
           <c:x val="0.21372448484979048"/>
           <c:y val="0.17374149659863947"/>
           <c:w val="0.73492788435645262"/>
-          <c:h val="0.39031156819683255"/>
+          <c:h val="0.38577642080454227"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -655,88 +630,27 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:gradFill>
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="lt1">
-                    <a:alpha val="50000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="lt1">
-                    <a:alpha val="0"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="74000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="0">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst>
-              <a:innerShdw dist="38100" dir="16200000">
-                <a:schemeClr val="lt1"/>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:innerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1">
-                          <a:lumMod val="60000"/>
-                          <a:lumOff val="40000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Table 15'!$A$12:$A$27</c:f>
+              <c:f>'Age, Gender and Marital Status'!$A$12:$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -792,7 +706,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Table 15'!$B$12:$B$27</c:f>
+              <c:f>'Age, Gender and Marital Status'!$B$12:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -855,7 +769,7 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -863,20 +777,13 @@
         </c:dLbls>
         <c:dropLines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="lt1"/>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="lt1">
-                      <a:alpha val="0"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -892,18 +799,72 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>AGE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
-                <a:alpha val="25000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -911,13 +872,16 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -939,12 +903,108 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Thousands</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="516778760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -970,11 +1030,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="accent1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="accent1"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1109,6 +1172,11 @@
                 </a:innerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-067D-4844-AB96-B0B1CB1A3C41}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1136,6 +1204,11 @@
                 </a:innerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-067D-4844-AB96-B0B1CB1A3C41}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1194,7 +1267,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Table 15'!$A$8:$A$9</c:f>
+              <c:f>'Age, Gender and Marital Status'!$A$8:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1208,7 +1281,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Table 15'!$B$8:$B$9</c:f>
+              <c:f>'Age, Gender and Marital Status'!$B$8:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1532,11 +1605,11 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Table 15'!$A$35:$A$38</c:f>
+              <c:f>'Age, Gender and Marital Status'!$A$35:$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Married3</c:v>
+                  <c:v>Married</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Single</c:v>
@@ -1552,7 +1625,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Table 15'!$B$35:$B$38</c:f>
+              <c:f>'Age, Gender and Marital Status'!$B$35:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1715,12 +1788,35 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="accent1">
+              <a:lumMod val="6000"/>
+              <a:lumOff val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="74000">
+            <a:schemeClr val="accent1">
+              <a:lumMod val="45000"/>
+              <a:lumOff val="55000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="83000">
+            <a:schemeClr val="accent1">
+              <a:lumMod val="45000"/>
+              <a:lumOff val="55000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="accent1">
+              <a:lumMod val="30000"/>
+              <a:lumOff val="70000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1830,57 +1926,59 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="285">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="284">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-            <a:alpha val="25000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -1892,18 +1990,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <cs:styleClr val="auto">
+        <a:lumMod val="50000"/>
+      </cs:styleClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <cs:styleClr val="auto"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1911,7 +2012,10 @@
       </a:solidFill>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -1921,75 +2025,53 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1">
-              <a:alpha val="50000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:alpha val="0"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="74000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:effectLst>
-        <a:innerShdw dist="38100" dir="16200000">
-          <a:schemeClr val="lt1"/>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
         </a:innerShdw>
       </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1">
-              <a:alpha val="50000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:alpha val="0"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="74000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:effectLst>
-        <a:innerShdw dist="38100" dir="16200000">
-          <a:schemeClr val="lt1"/>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
         </a:innerShdw>
       </a:effectLst>
     </cs:spPr>
@@ -1999,24 +2081,19 @@
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-          <a:schemeClr val="phClr"/>
-        </a:outerShdw>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
@@ -2026,21 +2103,17 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln w="22225">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -2048,7 +2121,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2060,21 +2133,21 @@
     </cs:spPr>
   </cs:dataPointWireframe>
   <cs:dataTable>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-            <a:alpha val="25000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2082,26 +2155,24 @@
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="35000"/>
-          <a:lumOff val="65000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2112,51 +2183,37 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1"/>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="lt1">
-                <a:alpha val="0"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
   <cs:errorBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:glow rad="25400">
-          <a:schemeClr val="lt1"/>
-        </a:glow>
-      </a:effectLst>
     </cs:spPr>
   </cs:errorBar>
   <cs:floor>
@@ -2164,86 +2221,78 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-            <a:alpha val="25000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
   <cs:gridlineMinor>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-            <a:alpha val="25000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
   <cs:hiLoLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
   <cs:leaderLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2254,68 +2303,57 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-            <a:tint val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -2324,25 +2362,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="50" baseline="0"/>
   </cs:title>
   <cs:trendline>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2351,30 +2391,29 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2385,17 +2424,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -3444,13 +3485,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3877,7 +3918,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R41" sqref="R41"/>
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4961,7 +5002,7 @@
       </c>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>47</v>
       </c>
